--- a/Code/Results/Cases/Case_5_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.87322614152173</v>
+        <v>17.77319415614589</v>
       </c>
       <c r="C2">
-        <v>11.66524453137762</v>
+        <v>7.791983378675867</v>
       </c>
       <c r="D2">
-        <v>5.086483589937482</v>
+        <v>8.239479812129757</v>
       </c>
       <c r="E2">
-        <v>7.118926967308113</v>
+        <v>12.36374021842432</v>
       </c>
       <c r="F2">
-        <v>23.03440664684035</v>
+        <v>33.83264864516143</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>14.86631775072211</v>
+        <v>24.73480789260664</v>
       </c>
       <c r="J2">
-        <v>5.470044011590882</v>
+        <v>9.581487980166377</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.617633974614582</v>
+        <v>11.48276104519301</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.28953848192789</v>
+        <v>18.03796723850543</v>
       </c>
       <c r="O2">
-        <v>16.92474870646987</v>
+        <v>25.90925122623008</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.52242281449542</v>
+        <v>17.34527673506555</v>
       </c>
       <c r="C3">
-        <v>11.02609819496176</v>
+        <v>7.480115152201347</v>
       </c>
       <c r="D3">
-        <v>5.001483065682634</v>
+        <v>8.239041773105118</v>
       </c>
       <c r="E3">
-        <v>7.146452085688814</v>
+        <v>12.39110689749562</v>
       </c>
       <c r="F3">
-        <v>22.64163922142193</v>
+        <v>33.886380937281</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>14.97725895773665</v>
+        <v>24.83563599051525</v>
       </c>
       <c r="J3">
-        <v>5.521674361214878</v>
+        <v>9.601598045439776</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.411755075562263</v>
+        <v>11.46747575642975</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.41754893478592</v>
+        <v>18.08465470113766</v>
       </c>
       <c r="O3">
-        <v>16.7444741978267</v>
+        <v>25.97065680667485</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.65643653104963</v>
+        <v>17.07936528284254</v>
       </c>
       <c r="C4">
-        <v>10.61394784476755</v>
+        <v>7.280451675780484</v>
       </c>
       <c r="D4">
-        <v>4.950165420365833</v>
+        <v>8.2396365845633</v>
       </c>
       <c r="E4">
-        <v>7.16606243941684</v>
+        <v>12.40921478516419</v>
       </c>
       <c r="F4">
-        <v>22.41763017218317</v>
+        <v>33.92738678865064</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.05832861664705</v>
+        <v>24.90240761032862</v>
       </c>
       <c r="J4">
-        <v>5.554484668498503</v>
+        <v>9.614612442509245</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.285173794491525</v>
+        <v>11.45953316998241</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.49964735592661</v>
+        <v>18.11510521220666</v>
       </c>
       <c r="O4">
-        <v>16.6481235696639</v>
+        <v>26.01416566149595</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29236655895145</v>
+        <v>16.97036124088529</v>
       </c>
       <c r="C5">
-        <v>10.44111006502238</v>
+        <v>7.197105834763626</v>
       </c>
       <c r="D5">
-        <v>4.929492771771974</v>
+        <v>8.240097022750712</v>
       </c>
       <c r="E5">
-        <v>7.174722616608138</v>
+        <v>12.4169224431989</v>
       </c>
       <c r="F5">
-        <v>22.33065507815264</v>
+        <v>33.94610871400028</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.09447747319447</v>
+        <v>24.93083900411917</v>
       </c>
       <c r="J5">
-        <v>5.568137079931738</v>
+        <v>9.620084030234262</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.233616207418883</v>
+        <v>11.45666184680705</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.53397430967058</v>
+        <v>18.12796355970592</v>
       </c>
       <c r="O5">
-        <v>16.61239042338001</v>
+        <v>26.03335261239136</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23124127502727</v>
+        <v>16.95222699757618</v>
       </c>
       <c r="C6">
-        <v>10.41211809191922</v>
+        <v>7.183149023794773</v>
       </c>
       <c r="D6">
-        <v>4.926075157650475</v>
+        <v>8.240186671439924</v>
       </c>
       <c r="E6">
-        <v>7.176200664135946</v>
+        <v>12.41822215161721</v>
       </c>
       <c r="F6">
-        <v>22.31647289761306</v>
+        <v>33.94933886299014</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.10066382311184</v>
+        <v>24.93563374640776</v>
       </c>
       <c r="J6">
-        <v>5.570421169567057</v>
+        <v>9.621002750475997</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.22505869438042</v>
+        <v>11.45620720349888</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.53972665677725</v>
+        <v>18.13012585379877</v>
       </c>
       <c r="O6">
-        <v>16.6066678105335</v>
+        <v>26.03662647772526</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65157166246199</v>
+        <v>17.07789761132723</v>
       </c>
       <c r="C7">
-        <v>10.61163655423185</v>
+        <v>7.279335561414098</v>
       </c>
       <c r="D7">
-        <v>4.949885624703405</v>
+        <v>8.239641910239062</v>
       </c>
       <c r="E7">
-        <v>7.166176542047503</v>
+        <v>12.40931740241263</v>
       </c>
       <c r="F7">
-        <v>22.41643975731694</v>
+        <v>33.92763113886468</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.05880371788631</v>
+        <v>24.90278610238473</v>
       </c>
       <c r="J7">
-        <v>5.55466764409582</v>
+        <v>9.614685552951316</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.284478275812589</v>
+        <v>11.45949296377202</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.50010678457972</v>
+        <v>18.11527680315364</v>
       </c>
       <c r="O7">
-        <v>16.64762747137226</v>
+        <v>26.01441852949623</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40807234543765</v>
+        <v>17.6263958784398</v>
       </c>
       <c r="C8">
-        <v>11.44899631401452</v>
+        <v>7.686189513204285</v>
       </c>
       <c r="D8">
-        <v>5.05700635427687</v>
+        <v>8.239150021738109</v>
       </c>
       <c r="E8">
-        <v>7.127847513069367</v>
+        <v>12.37290576458991</v>
       </c>
       <c r="F8">
-        <v>22.895423464603</v>
+        <v>33.84951033247238</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>14.90179369354072</v>
+        <v>24.76856333501053</v>
       </c>
       <c r="J8">
-        <v>5.487617839350023</v>
+        <v>9.588283826600152</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.546722281469845</v>
+        <v>11.47719285776904</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.33294451677521</v>
+        <v>18.05369527576083</v>
       </c>
       <c r="O8">
-        <v>16.8595719475925</v>
+        <v>25.92921712678445</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63256922424489</v>
+        <v>18.67048084795387</v>
       </c>
       <c r="C9">
-        <v>12.93234692144472</v>
+        <v>8.416382288640852</v>
       </c>
       <c r="D9">
-        <v>5.273112697914289</v>
+        <v>8.245000668955846</v>
       </c>
       <c r="E9">
-        <v>7.07476929708763</v>
+        <v>12.3118326971027</v>
       </c>
       <c r="F9">
-        <v>23.97027416805583</v>
+        <v>33.76003277748742</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>14.703395382245</v>
+        <v>24.5439976811214</v>
       </c>
       <c r="J9">
-        <v>5.364789854977365</v>
+        <v>9.541779362619829</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.056819889411628</v>
+        <v>11.52322913442226</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.03336230367986</v>
+        <v>17.94705256305001</v>
       </c>
       <c r="O9">
-        <v>17.39182841443769</v>
+        <v>25.80833122873828</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.765094603385</v>
+        <v>19.41039411676416</v>
       </c>
       <c r="C10">
-        <v>13.92341972330306</v>
+        <v>8.908498719993192</v>
       </c>
       <c r="D10">
-        <v>5.434411456928482</v>
+        <v>8.253400555666472</v>
       </c>
       <c r="E10">
-        <v>7.050067635840297</v>
+        <v>12.27323016766596</v>
       </c>
       <c r="F10">
-        <v>24.84122883707616</v>
+        <v>33.73327545391898</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>14.63398815524488</v>
+        <v>24.40265162616973</v>
       </c>
       <c r="J10">
-        <v>5.279618752039949</v>
+        <v>9.510795320148734</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.425614693534827</v>
+        <v>11.56378698384855</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.83119677554629</v>
+        <v>17.8772563251918</v>
       </c>
       <c r="O10">
-        <v>17.85724548343713</v>
+        <v>25.74783805944563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68320986257481</v>
+        <v>19.73959102735281</v>
       </c>
       <c r="C11">
-        <v>14.35267661328857</v>
+        <v>9.122235878417872</v>
       </c>
       <c r="D11">
-        <v>5.508105599745931</v>
+        <v>8.258100060962262</v>
       </c>
       <c r="E11">
-        <v>7.042122447524887</v>
+        <v>12.25702360256403</v>
       </c>
       <c r="F11">
-        <v>25.25465668993738</v>
+        <v>33.72958175584904</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>14.62115506007851</v>
+        <v>24.34350166672222</v>
       </c>
       <c r="J11">
-        <v>5.241926897184753</v>
+        <v>9.497384728146557</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.591465935952426</v>
+        <v>11.58366025738696</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.74331781398209</v>
+        <v>17.8473507555464</v>
       </c>
       <c r="O11">
-        <v>18.0856499370258</v>
+        <v>25.72649582001914</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.02348404077772</v>
+        <v>19.86307287512811</v>
       </c>
       <c r="C12">
-        <v>14.51211914800468</v>
+        <v>9.201681942856727</v>
       </c>
       <c r="D12">
-        <v>5.536039130806798</v>
+        <v>8.260004786324702</v>
       </c>
       <c r="E12">
-        <v>7.039603343793743</v>
+        <v>12.25108080249982</v>
       </c>
       <c r="F12">
-        <v>25.41364589143386</v>
+        <v>33.72940198988085</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>14.61917398699165</v>
+        <v>24.32184518108787</v>
       </c>
       <c r="J12">
-        <v>5.227801566907435</v>
+        <v>9.492404404612618</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.653949045843758</v>
+        <v>11.59138670365392</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.71064769582932</v>
+        <v>17.8362908252081</v>
       </c>
       <c r="O12">
-        <v>18.17457246934528</v>
+        <v>25.71930390462457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.95052756894833</v>
+        <v>19.83653296497061</v>
       </c>
       <c r="C13">
-        <v>14.47791852886924</v>
+        <v>9.184638648298359</v>
       </c>
       <c r="D13">
-        <v>5.530022221267078</v>
+        <v>8.259589024100281</v>
       </c>
       <c r="E13">
-        <v>7.040123839843812</v>
+        <v>12.25235205706768</v>
       </c>
       <c r="F13">
-        <v>25.37929720024032</v>
+        <v>33.72938650449841</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>14.61946966356423</v>
+        <v>24.32647624764397</v>
       </c>
       <c r="J13">
-        <v>5.230837197242771</v>
+        <v>9.493472655362998</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.640507141790353</v>
+        <v>11.58971380390688</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.71765641474068</v>
+        <v>17.8386610185955</v>
       </c>
       <c r="O13">
-        <v>18.15531285199361</v>
+        <v>25.72081320837629</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71135219253471</v>
+        <v>19.74977418406463</v>
       </c>
       <c r="C14">
-        <v>14.36585632024725</v>
+        <v>9.128802028067559</v>
       </c>
       <c r="D14">
-        <v>5.510403266396642</v>
+        <v>8.258254263146807</v>
       </c>
       <c r="E14">
-        <v>7.041905292748867</v>
+        <v>12.25653079366867</v>
       </c>
       <c r="F14">
-        <v>25.2676883137888</v>
+        <v>33.72954254085732</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>14.62093332205041</v>
+        <v>24.34170508654625</v>
       </c>
       <c r="J14">
-        <v>5.240761857774062</v>
+        <v>9.496973032675475</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.596613137348404</v>
+        <v>11.58429191345824</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.74061771991807</v>
+        <v>17.84643554796172</v>
       </c>
       <c r="O14">
-        <v>18.09291676833034</v>
+        <v>25.72588629255145</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56388955768807</v>
+        <v>19.69647528380892</v>
       </c>
       <c r="C15">
-        <v>14.29681030373425</v>
+        <v>9.094405295884549</v>
       </c>
       <c r="D15">
-        <v>5.498389093838085</v>
+        <v>8.257452942421763</v>
       </c>
       <c r="E15">
-        <v>7.043060731292758</v>
+        <v>12.25911567836882</v>
       </c>
       <c r="F15">
-        <v>25.19964021164881</v>
+        <v>33.72979684130931</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>14.62221023394127</v>
+        <v>24.35112991839605</v>
       </c>
       <c r="J15">
-        <v>5.246860131131567</v>
+        <v>9.499129862164917</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.569683707157258</v>
+        <v>11.58099689224007</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.75476196555931</v>
+        <v>17.85123211891641</v>
       </c>
       <c r="O15">
-        <v>18.0550147705771</v>
+        <v>25.72910964396941</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70405427710242</v>
+        <v>19.38872153362163</v>
       </c>
       <c r="C16">
-        <v>13.89493188853396</v>
+        <v>8.894323550732866</v>
       </c>
       <c r="D16">
-        <v>5.429600160514806</v>
+        <v>8.253111006965923</v>
       </c>
       <c r="E16">
-        <v>7.050654484152508</v>
+        <v>12.27431651343293</v>
       </c>
       <c r="F16">
-        <v>24.81455321092438</v>
+        <v>33.73368745186004</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>14.63521955888303</v>
+        <v>24.40662098891087</v>
       </c>
       <c r="J16">
-        <v>5.282102881023324</v>
+        <v>9.511685466576511</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.414733345473682</v>
+        <v>11.56251653840194</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.83702376895459</v>
+        <v>17.87924779537816</v>
       </c>
       <c r="O16">
-        <v>17.8426572573812</v>
+        <v>25.74935726972836</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.16331461809616</v>
+        <v>19.19794640109052</v>
       </c>
       <c r="C17">
-        <v>13.64285822506579</v>
+        <v>8.768958874030867</v>
       </c>
       <c r="D17">
-        <v>5.387468331522357</v>
+        <v>8.250671515118064</v>
       </c>
       <c r="E17">
-        <v>7.056167457934841</v>
+        <v>12.28398820746204</v>
       </c>
       <c r="F17">
-        <v>24.58269544557212</v>
+        <v>33.73824582807361</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>14.64812983556817</v>
+        <v>24.44198310502356</v>
       </c>
       <c r="J17">
-        <v>5.303990277995338</v>
+        <v>9.5195628705185</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.319151431985498</v>
+        <v>11.5515413351168</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.88854898255646</v>
+        <v>17.89690659975565</v>
       </c>
       <c r="O17">
-        <v>17.71668013517943</v>
+        <v>25.76336183433694</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.84739786622312</v>
+        <v>19.08752796346528</v>
       </c>
       <c r="C18">
-        <v>13.4958398613724</v>
+        <v>8.695900743450233</v>
       </c>
       <c r="D18">
-        <v>5.363266247807349</v>
+        <v>8.24935113313332</v>
       </c>
       <c r="E18">
-        <v>7.059647202951341</v>
+        <v>12.28967857230646</v>
       </c>
       <c r="F18">
-        <v>24.45096112985936</v>
+        <v>33.7416657720417</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>14.65730820729815</v>
+        <v>24.4628069998819</v>
       </c>
       <c r="J18">
-        <v>5.316678659138591</v>
+        <v>9.524158169785807</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.263997342901062</v>
+        <v>11.54536289552818</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.91856827918422</v>
+        <v>17.90723718373091</v>
       </c>
       <c r="O18">
-        <v>17.64579029844498</v>
+        <v>25.7719981596914</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.73959036427568</v>
+        <v>19.05002738069459</v>
       </c>
       <c r="C19">
-        <v>13.44571317738902</v>
+        <v>8.671002221977362</v>
       </c>
       <c r="D19">
-        <v>5.355077754552049</v>
+        <v>8.248918321807814</v>
       </c>
       <c r="E19">
-        <v>7.060877941319371</v>
+        <v>12.2916271365527</v>
       </c>
       <c r="F19">
-        <v>24.4066384495541</v>
+        <v>33.7429607716461</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>14.66071133881864</v>
+        <v>24.46994077586892</v>
       </c>
       <c r="J19">
-        <v>5.320991896350328</v>
+        <v>9.525725136788534</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.245294046697301</v>
+        <v>11.5432941451058</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.928797570501</v>
+        <v>17.91076479676973</v>
       </c>
       <c r="O19">
-        <v>17.62205662339613</v>
+        <v>25.77502204483387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.22138360023053</v>
+        <v>19.21832697375977</v>
       </c>
       <c r="C20">
-        <v>13.66990228086528</v>
+        <v>8.782402924843295</v>
       </c>
       <c r="D20">
-        <v>5.39195026395344</v>
+        <v>8.250922647344678</v>
       </c>
       <c r="E20">
-        <v>7.055548514214811</v>
+        <v>12.28294545028619</v>
       </c>
       <c r="F20">
-        <v>24.60720932973596</v>
+        <v>33.73767798112767</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>14.64657279493949</v>
+        <v>24.4381685855485</v>
       </c>
       <c r="J20">
-        <v>5.30165007311887</v>
+        <v>9.518717642679464</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.329345050988946</v>
+        <v>11.55269580128222</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.88302422280913</v>
+        <v>17.89500881673666</v>
       </c>
       <c r="O20">
-        <v>17.72992799746741</v>
+        <v>25.76181085122947</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.7818038856934</v>
+        <v>19.77529017692301</v>
       </c>
       <c r="C21">
-        <v>14.3988560363873</v>
+        <v>9.145243329244696</v>
       </c>
       <c r="D21">
-        <v>5.516165234588247</v>
+        <v>8.258642928642601</v>
       </c>
       <c r="E21">
-        <v>7.041368618035635</v>
+        <v>12.25529812821113</v>
       </c>
       <c r="F21">
-        <v>25.30040486265787</v>
+        <v>33.72946363287272</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>14.6204238072868</v>
+        <v>24.33721184592988</v>
       </c>
       <c r="J21">
-        <v>5.23784276393086</v>
+        <v>9.495942231207833</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.609514923035297</v>
+        <v>11.58587903375432</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.73385676187752</v>
+        <v>17.84414480260944</v>
       </c>
       <c r="O21">
-        <v>18.11117781387655</v>
+        <v>25.72437204015516</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75855701510422</v>
+        <v>20.13238550825284</v>
       </c>
       <c r="C22">
-        <v>14.85715937345278</v>
+        <v>9.373674055645363</v>
       </c>
       <c r="D22">
-        <v>5.597497435775066</v>
+        <v>8.26441731342835</v>
       </c>
       <c r="E22">
-        <v>7.034962746126546</v>
+        <v>12.23836119119736</v>
       </c>
       <c r="F22">
-        <v>25.76761090407027</v>
+        <v>33.73119941134077</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>14.62019962055863</v>
+        <v>24.27555847550051</v>
       </c>
       <c r="J22">
-        <v>5.197000469717501</v>
+        <v>9.481628077973124</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.790732972989765</v>
+        <v>11.60873512541824</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.6399207440505</v>
+        <v>17.81244457652715</v>
       </c>
       <c r="O22">
-        <v>18.37452631410691</v>
+        <v>25.7050913435649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.24115977731728</v>
+        <v>19.94246501385172</v>
       </c>
       <c r="C23">
-        <v>14.61421034364758</v>
+        <v>9.25256309808098</v>
       </c>
       <c r="D23">
-        <v>5.554080976584253</v>
+        <v>8.261269141226578</v>
       </c>
       <c r="E23">
-        <v>7.038114342537048</v>
+        <v>12.2472972960573</v>
       </c>
       <c r="F23">
-        <v>25.51697247820119</v>
+        <v>33.72962323289711</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>14.61871457445588</v>
+        <v>24.30806742801812</v>
       </c>
       <c r="J23">
-        <v>5.218721363016917</v>
+        <v>9.489215708822121</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.694199993760565</v>
+        <v>11.5964307428929</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.68972371946374</v>
+        <v>17.82922267225662</v>
       </c>
       <c r="O23">
-        <v>18.23266555639722</v>
+        <v>25.71490665020633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.19514631256664</v>
+        <v>19.20911521068524</v>
       </c>
       <c r="C24">
-        <v>13.65768219723014</v>
+        <v>8.776327932704849</v>
       </c>
       <c r="D24">
-        <v>5.389923918371032</v>
+        <v>8.250808854610799</v>
       </c>
       <c r="E24">
-        <v>7.055827373491779</v>
+        <v>12.28341647590787</v>
       </c>
       <c r="F24">
-        <v>24.59612172842767</v>
+        <v>33.73793221502793</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>14.64727127708221</v>
+        <v>24.43989159194381</v>
       </c>
       <c r="J24">
-        <v>5.30270775233893</v>
+        <v>9.519099563090199</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.324737143897485</v>
+        <v>11.55217345770121</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.88552073233806</v>
+        <v>17.89586624897869</v>
       </c>
       <c r="O24">
-        <v>17.72393385678951</v>
+        <v>25.76251022883798</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.80064610469213</v>
+        <v>18.3922583709789</v>
       </c>
       <c r="C25">
-        <v>12.54830884635844</v>
+        <v>8.22644019292348</v>
       </c>
       <c r="D25">
-        <v>5.214124707368104</v>
+        <v>8.242693582126648</v>
       </c>
       <c r="E25">
-        <v>7.086679886223744</v>
+        <v>12.32725174165337</v>
       </c>
       <c r="F25">
-        <v>23.66509330265404</v>
+        <v>33.77740024798904</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>14.74437354220704</v>
+        <v>24.60060289914222</v>
       </c>
       <c r="J25">
-        <v>5.397112360024376</v>
+        <v>9.55379900650971</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.919643820523111</v>
+        <v>11.50957929675195</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.1113168632128</v>
+        <v>17.97439630124532</v>
       </c>
       <c r="O25">
-        <v>17.23498053604453</v>
+        <v>25.83607082150786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_181/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.77319415614589</v>
+        <v>20.87322614152171</v>
       </c>
       <c r="C2">
-        <v>7.791983378675867</v>
+        <v>11.66524453137765</v>
       </c>
       <c r="D2">
-        <v>8.239479812129757</v>
+        <v>5.086483589937532</v>
       </c>
       <c r="E2">
-        <v>12.36374021842432</v>
+        <v>7.118926967308053</v>
       </c>
       <c r="F2">
-        <v>33.83264864516143</v>
+        <v>23.0344066468404</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>24.73480789260664</v>
+        <v>14.86631775072219</v>
       </c>
       <c r="J2">
-        <v>9.581487980166377</v>
+        <v>5.470044011590851</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.48276104519301</v>
+        <v>7.617633974614499</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.03796723850543</v>
+        <v>12.28953848192782</v>
       </c>
       <c r="O2">
-        <v>25.90925122623008</v>
+        <v>16.92474870646992</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34527673506555</v>
+        <v>19.52242281449542</v>
       </c>
       <c r="C3">
-        <v>7.480115152201347</v>
+        <v>11.02609819496166</v>
       </c>
       <c r="D3">
-        <v>8.239041773105118</v>
+        <v>5.001483065682385</v>
       </c>
       <c r="E3">
-        <v>12.39110689749562</v>
+        <v>7.146452085688882</v>
       </c>
       <c r="F3">
-        <v>33.886380937281</v>
+        <v>22.64163922142212</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.83563599051525</v>
+        <v>14.97725895773688</v>
       </c>
       <c r="J3">
-        <v>9.601598045439776</v>
+        <v>5.521674361215009</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.46747575642975</v>
+        <v>7.411755075562263</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.08465470113766</v>
+        <v>12.41754893478598</v>
       </c>
       <c r="O3">
-        <v>25.97065680667485</v>
+        <v>16.74447419782693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.07936528284254</v>
+        <v>18.65643653104964</v>
       </c>
       <c r="C4">
-        <v>7.280451675780484</v>
+        <v>10.61394784476746</v>
       </c>
       <c r="D4">
-        <v>8.2396365845633</v>
+        <v>4.950165420365838</v>
       </c>
       <c r="E4">
-        <v>12.40921478516419</v>
+        <v>7.166062439416838</v>
       </c>
       <c r="F4">
-        <v>33.92738678865064</v>
+        <v>22.41763017218327</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.90240761032862</v>
+        <v>15.05832861664717</v>
       </c>
       <c r="J4">
-        <v>9.614612442509245</v>
+        <v>5.554484668498501</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.45953316998241</v>
+        <v>7.285173794491506</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.11510521220666</v>
+        <v>12.49964735592661</v>
       </c>
       <c r="O4">
-        <v>26.01416566149595</v>
+        <v>16.648123569664</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.97036124088529</v>
+        <v>18.29236655895144</v>
       </c>
       <c r="C5">
-        <v>7.197105834763626</v>
+        <v>10.4411100650223</v>
       </c>
       <c r="D5">
-        <v>8.240097022750712</v>
+        <v>4.929492771771756</v>
       </c>
       <c r="E5">
-        <v>12.4169224431989</v>
+        <v>7.174722616608017</v>
       </c>
       <c r="F5">
-        <v>33.94610871400028</v>
+        <v>22.33065507815233</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.93083900411917</v>
+        <v>15.09447747319425</v>
       </c>
       <c r="J5">
-        <v>9.620084030234262</v>
+        <v>5.568137079931737</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.45666184680705</v>
+        <v>7.233616207418811</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.12796355970592</v>
+        <v>12.53397430967051</v>
       </c>
       <c r="O5">
-        <v>26.03335261239136</v>
+        <v>16.61239042337985</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.95222699757618</v>
+        <v>18.23124127502725</v>
       </c>
       <c r="C6">
-        <v>7.183149023794773</v>
+        <v>10.4121180919192</v>
       </c>
       <c r="D6">
-        <v>8.240186671439924</v>
+        <v>4.926075157650535</v>
       </c>
       <c r="E6">
-        <v>12.41822215161721</v>
+        <v>7.176200664136136</v>
       </c>
       <c r="F6">
-        <v>33.94933886299014</v>
+        <v>22.31647289761297</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.93563374640776</v>
+        <v>15.10066382311176</v>
       </c>
       <c r="J6">
-        <v>9.621002750475997</v>
+        <v>5.570421169567159</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.45620720349888</v>
+        <v>7.225058694380514</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.13012585379877</v>
+        <v>12.53972665677725</v>
       </c>
       <c r="O6">
-        <v>26.03662647772526</v>
+        <v>16.60666781053343</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.07789761132723</v>
+        <v>18.651571662462</v>
       </c>
       <c r="C7">
-        <v>7.279335561414098</v>
+        <v>10.61163655423194</v>
       </c>
       <c r="D7">
-        <v>8.239641910239062</v>
+        <v>4.949885624703449</v>
       </c>
       <c r="E7">
-        <v>12.40931740241263</v>
+        <v>7.16617654204756</v>
       </c>
       <c r="F7">
-        <v>33.92763113886468</v>
+        <v>22.41643975731722</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.90278610238473</v>
+        <v>15.05880371788656</v>
       </c>
       <c r="J7">
-        <v>9.614685552951316</v>
+        <v>5.55466764409582</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.45949296377202</v>
+        <v>7.28447827581261</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.11527680315364</v>
+        <v>12.50010678457981</v>
       </c>
       <c r="O7">
-        <v>26.01441852949623</v>
+        <v>16.64762747137246</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.6263958784398</v>
+        <v>20.40807234543766</v>
       </c>
       <c r="C8">
-        <v>7.686189513204285</v>
+        <v>11.44899631401443</v>
       </c>
       <c r="D8">
-        <v>8.239150021738109</v>
+        <v>5.057006354276813</v>
       </c>
       <c r="E8">
-        <v>12.37290576458991</v>
+        <v>7.127847513069366</v>
       </c>
       <c r="F8">
-        <v>33.84951033247238</v>
+        <v>22.89542346460304</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.76856333501053</v>
+        <v>14.90179369354072</v>
       </c>
       <c r="J8">
-        <v>9.588283826600152</v>
+        <v>5.487617839350057</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.47719285776904</v>
+        <v>7.546722281469882</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.05369527576083</v>
+        <v>12.33294451677521</v>
       </c>
       <c r="O8">
-        <v>25.92921712678445</v>
+        <v>16.85957194759252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.67048084795387</v>
+        <v>23.63256922424488</v>
       </c>
       <c r="C9">
-        <v>8.416382288640852</v>
+        <v>12.93234692144468</v>
       </c>
       <c r="D9">
-        <v>8.245000668955846</v>
+        <v>5.273112697914117</v>
       </c>
       <c r="E9">
-        <v>12.3118326971027</v>
+        <v>7.074769297087569</v>
       </c>
       <c r="F9">
-        <v>33.76003277748742</v>
+        <v>23.97027416805577</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>24.5439976811214</v>
+        <v>14.70339538224502</v>
       </c>
       <c r="J9">
-        <v>9.541779362619829</v>
+        <v>5.364789854977396</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.52322913442226</v>
+        <v>8.056819889411585</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.94705256305001</v>
+        <v>12.03336230367982</v>
       </c>
       <c r="O9">
-        <v>25.80833122873828</v>
+        <v>17.39182841443772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.41039411676416</v>
+        <v>25.76509460338501</v>
       </c>
       <c r="C10">
-        <v>8.908498719993192</v>
+        <v>13.92341972330304</v>
       </c>
       <c r="D10">
-        <v>8.253400555666472</v>
+        <v>5.434411456928294</v>
       </c>
       <c r="E10">
-        <v>12.27323016766596</v>
+        <v>7.050067635840248</v>
       </c>
       <c r="F10">
-        <v>33.73327545391898</v>
+        <v>24.84122883707613</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.40265162616973</v>
+        <v>14.63398815524491</v>
       </c>
       <c r="J10">
-        <v>9.510795320148734</v>
+        <v>5.279618752040079</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.56378698384855</v>
+        <v>8.425614693534806</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.8772563251918</v>
+        <v>11.83119677554629</v>
       </c>
       <c r="O10">
-        <v>25.74783805944563</v>
+        <v>17.85724548343716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.73959102735281</v>
+        <v>26.68320986257481</v>
       </c>
       <c r="C11">
-        <v>9.122235878417872</v>
+        <v>14.35267661328844</v>
       </c>
       <c r="D11">
-        <v>8.258100060962262</v>
+        <v>5.508105599746012</v>
       </c>
       <c r="E11">
-        <v>12.25702360256403</v>
+        <v>7.042122447524888</v>
       </c>
       <c r="F11">
-        <v>33.72958175584904</v>
+        <v>25.2546566899375</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.34350166672222</v>
+        <v>14.62115506007856</v>
       </c>
       <c r="J11">
-        <v>9.497384728146557</v>
+        <v>5.241926897184689</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.58366025738696</v>
+        <v>8.591465935952447</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.8473507555464</v>
+        <v>11.74331781398212</v>
       </c>
       <c r="O11">
-        <v>25.72649582001914</v>
+        <v>18.08564993702586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.86307287512811</v>
+        <v>27.02348404077777</v>
       </c>
       <c r="C12">
-        <v>9.201681942856727</v>
+        <v>14.51211914800467</v>
       </c>
       <c r="D12">
-        <v>8.260004786324702</v>
+        <v>5.536039130806854</v>
       </c>
       <c r="E12">
-        <v>12.25108080249982</v>
+        <v>7.039603343793699</v>
       </c>
       <c r="F12">
-        <v>33.72940198988085</v>
+        <v>25.41364589143375</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.32184518108787</v>
+        <v>14.6191739869915</v>
       </c>
       <c r="J12">
-        <v>9.492404404612618</v>
+        <v>5.2278015669074</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.59138670365392</v>
+        <v>8.653949045843738</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.8362908252081</v>
+        <v>11.71064769582926</v>
       </c>
       <c r="O12">
-        <v>25.71930390462457</v>
+        <v>18.17457246934517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.83653296497061</v>
+        <v>26.95052756894832</v>
       </c>
       <c r="C13">
-        <v>9.184638648298359</v>
+        <v>14.4779185288693</v>
       </c>
       <c r="D13">
-        <v>8.259589024100281</v>
+        <v>5.530022221267159</v>
       </c>
       <c r="E13">
-        <v>12.25235205706768</v>
+        <v>7.040123839843987</v>
       </c>
       <c r="F13">
-        <v>33.72938650449841</v>
+        <v>25.37929720024035</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.32647624764397</v>
+        <v>14.61946966356429</v>
       </c>
       <c r="J13">
-        <v>9.493472655362998</v>
+        <v>5.230837197242874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.58971380390688</v>
+        <v>8.640507141790394</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.8386610185955</v>
+        <v>11.71765641474071</v>
       </c>
       <c r="O13">
-        <v>25.72081320837629</v>
+        <v>18.15531285199361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.74977418406463</v>
+        <v>26.71135219253479</v>
       </c>
       <c r="C14">
-        <v>9.128802028067559</v>
+        <v>14.36585632024709</v>
       </c>
       <c r="D14">
-        <v>8.258254263146807</v>
+        <v>5.510403266396596</v>
       </c>
       <c r="E14">
-        <v>12.25653079366867</v>
+        <v>7.041905292748757</v>
       </c>
       <c r="F14">
-        <v>33.72954254085732</v>
+        <v>25.2676883137888</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.34170508654625</v>
+        <v>14.6209333220504</v>
       </c>
       <c r="J14">
-        <v>9.496973032675475</v>
+        <v>5.240761857774031</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.58429191345824</v>
+        <v>8.596613137348337</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.84643554796172</v>
+        <v>11.7406177199181</v>
       </c>
       <c r="O14">
-        <v>25.72588629255145</v>
+        <v>18.09291676833037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.69647528380892</v>
+        <v>26.56388955768809</v>
       </c>
       <c r="C15">
-        <v>9.094405295884549</v>
+        <v>14.29681030373423</v>
       </c>
       <c r="D15">
-        <v>8.257452942421763</v>
+        <v>5.498389093838105</v>
       </c>
       <c r="E15">
-        <v>12.25911567836882</v>
+        <v>7.043060731292713</v>
       </c>
       <c r="F15">
-        <v>33.72979684130931</v>
+        <v>25.19964021164882</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.35112991839605</v>
+        <v>14.62221023394121</v>
       </c>
       <c r="J15">
-        <v>9.499129862164917</v>
+        <v>5.246860131131501</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.58099689224007</v>
+        <v>8.569683707157271</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.85123211891641</v>
+        <v>11.75476196555924</v>
       </c>
       <c r="O15">
-        <v>25.72910964396941</v>
+        <v>18.05501477057707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.38872153362163</v>
+        <v>25.70405427710241</v>
       </c>
       <c r="C16">
-        <v>8.894323550732866</v>
+        <v>13.89493188853402</v>
       </c>
       <c r="D16">
-        <v>8.253111006965923</v>
+        <v>5.429600160514882</v>
       </c>
       <c r="E16">
-        <v>12.27431651343293</v>
+        <v>7.050654484152558</v>
       </c>
       <c r="F16">
-        <v>33.73368745186004</v>
+        <v>24.81455321092439</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>24.40662098891087</v>
+        <v>14.63521955888306</v>
       </c>
       <c r="J16">
-        <v>9.511685466576511</v>
+        <v>5.282102881023322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.56251653840194</v>
+        <v>8.414733345473664</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.87924779537816</v>
+        <v>11.83702376895466</v>
       </c>
       <c r="O16">
-        <v>25.74935726972836</v>
+        <v>17.8426572573812</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.19794640109052</v>
+        <v>25.16331461809617</v>
       </c>
       <c r="C17">
-        <v>8.768958874030867</v>
+        <v>13.64285822506593</v>
       </c>
       <c r="D17">
-        <v>8.250671515118064</v>
+        <v>5.387468331522522</v>
       </c>
       <c r="E17">
-        <v>12.28398820746204</v>
+        <v>7.056167457934961</v>
       </c>
       <c r="F17">
-        <v>33.73824582807361</v>
+        <v>24.58269544557221</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>24.44198310502356</v>
+        <v>14.64812983556831</v>
       </c>
       <c r="J17">
-        <v>9.5195628705185</v>
+        <v>5.303990277995341</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.5515413351168</v>
+        <v>8.319151431985491</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.89690659975565</v>
+        <v>11.88854898255659</v>
       </c>
       <c r="O17">
-        <v>25.76336183433694</v>
+        <v>17.71668013517947</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.08752796346528</v>
+        <v>24.84739786622308</v>
       </c>
       <c r="C18">
-        <v>8.695900743450233</v>
+        <v>13.49583986137238</v>
       </c>
       <c r="D18">
-        <v>8.24935113313332</v>
+        <v>5.36326624780741</v>
       </c>
       <c r="E18">
-        <v>12.28967857230646</v>
+        <v>7.059647202951393</v>
       </c>
       <c r="F18">
-        <v>33.7416657720417</v>
+        <v>24.45096112985946</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>24.4628069998819</v>
+        <v>14.65730820729824</v>
       </c>
       <c r="J18">
-        <v>9.524158169785807</v>
+        <v>5.316678659138591</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.54536289552818</v>
+        <v>8.263997342901055</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.90723718373091</v>
+        <v>11.91856827918425</v>
       </c>
       <c r="O18">
-        <v>25.7719981596914</v>
+        <v>17.64579029844501</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.05002738069459</v>
+        <v>24.73959036427568</v>
       </c>
       <c r="C19">
-        <v>8.671002221977362</v>
+        <v>13.44571317738906</v>
       </c>
       <c r="D19">
-        <v>8.248918321807814</v>
+        <v>5.355077754551956</v>
       </c>
       <c r="E19">
-        <v>12.2916271365527</v>
+        <v>7.060877941319375</v>
       </c>
       <c r="F19">
-        <v>33.7429607716461</v>
+        <v>24.40663844955403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>24.46994077586892</v>
+        <v>14.66071133881859</v>
       </c>
       <c r="J19">
-        <v>9.525725136788534</v>
+        <v>5.320991896350394</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.5432941451058</v>
+        <v>8.245294046697316</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.91076479676973</v>
+        <v>11.92879757050097</v>
       </c>
       <c r="O19">
-        <v>25.77502204483387</v>
+        <v>17.6220566233961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.21832697375977</v>
+        <v>25.22138360023052</v>
       </c>
       <c r="C20">
-        <v>8.782402924843295</v>
+        <v>13.66990228086531</v>
       </c>
       <c r="D20">
-        <v>8.250922647344678</v>
+        <v>5.391950263953513</v>
       </c>
       <c r="E20">
-        <v>12.28294545028619</v>
+        <v>7.055548514214811</v>
       </c>
       <c r="F20">
-        <v>33.73767798112767</v>
+        <v>24.60720932973592</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>24.4381685855485</v>
+        <v>14.6465727949394</v>
       </c>
       <c r="J20">
-        <v>9.518717642679464</v>
+        <v>5.301650073118875</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.55269580128222</v>
+        <v>8.329345050988964</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.89500881673666</v>
+        <v>11.88302422280906</v>
       </c>
       <c r="O20">
-        <v>25.76181085122947</v>
+        <v>17.72992799746734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.77529017692301</v>
+        <v>26.7818038856934</v>
       </c>
       <c r="C21">
-        <v>9.145243329244696</v>
+        <v>14.39885603638742</v>
       </c>
       <c r="D21">
-        <v>8.258642928642601</v>
+        <v>5.516165234588309</v>
       </c>
       <c r="E21">
-        <v>12.25529812821113</v>
+        <v>7.04136861803568</v>
       </c>
       <c r="F21">
-        <v>33.72946363287272</v>
+        <v>25.30040486265775</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.33721184592988</v>
+        <v>14.62042380728674</v>
       </c>
       <c r="J21">
-        <v>9.495942231207833</v>
+        <v>5.237842763930922</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.58587903375432</v>
+        <v>8.609514923035281</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.84414480260944</v>
+        <v>11.73385676187753</v>
       </c>
       <c r="O21">
-        <v>25.72437204015516</v>
+        <v>18.11117781387647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.13238550825284</v>
+        <v>27.75855701510426</v>
       </c>
       <c r="C22">
-        <v>9.373674055645363</v>
+        <v>14.85715937345265</v>
       </c>
       <c r="D22">
-        <v>8.26441731342835</v>
+        <v>5.597497435775018</v>
       </c>
       <c r="E22">
-        <v>12.23836119119736</v>
+        <v>7.034962746126607</v>
       </c>
       <c r="F22">
-        <v>33.73119941134077</v>
+        <v>25.76761090407025</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.27555847550051</v>
+        <v>14.62019962055855</v>
       </c>
       <c r="J22">
-        <v>9.481628077973124</v>
+        <v>5.197000469717566</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.60873512541824</v>
+        <v>8.790732972989849</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.81244457652715</v>
+        <v>11.63992074405047</v>
       </c>
       <c r="O22">
-        <v>25.7050913435649</v>
+        <v>18.37452631410688</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94246501385172</v>
+        <v>27.24115977731726</v>
       </c>
       <c r="C23">
-        <v>9.25256309808098</v>
+        <v>14.61421034364744</v>
       </c>
       <c r="D23">
-        <v>8.261269141226578</v>
+        <v>5.554080976584112</v>
       </c>
       <c r="E23">
-        <v>12.2472972960573</v>
+        <v>7.038114342537098</v>
       </c>
       <c r="F23">
-        <v>33.72962323289711</v>
+        <v>25.51697247820125</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.30806742801812</v>
+        <v>14.61871457445597</v>
       </c>
       <c r="J23">
-        <v>9.489215708822121</v>
+        <v>5.218721363017019</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.5964307428929</v>
+        <v>8.694199993760602</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.82922267225662</v>
+        <v>11.68972371946383</v>
       </c>
       <c r="O23">
-        <v>25.71490665020633</v>
+        <v>18.23266555639731</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.20911521068524</v>
+        <v>25.1951463125667</v>
       </c>
       <c r="C24">
-        <v>8.776327932704849</v>
+        <v>13.65768219722999</v>
       </c>
       <c r="D24">
-        <v>8.250808854610799</v>
+        <v>5.389923918371013</v>
       </c>
       <c r="E24">
-        <v>12.28341647590787</v>
+        <v>7.05582737349172</v>
       </c>
       <c r="F24">
-        <v>33.73793221502793</v>
+        <v>24.59612172842745</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>24.43989159194381</v>
+        <v>14.64727127708199</v>
       </c>
       <c r="J24">
-        <v>9.519099563090199</v>
+        <v>5.302707752338995</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.55217345770121</v>
+        <v>8.324737143897524</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.89586624897869</v>
+        <v>11.88552073233796</v>
       </c>
       <c r="O24">
-        <v>25.76251022883798</v>
+        <v>17.72393385678935</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.3922583709789</v>
+        <v>22.80064610469218</v>
       </c>
       <c r="C25">
-        <v>8.22644019292348</v>
+        <v>12.54830884635853</v>
       </c>
       <c r="D25">
-        <v>8.242693582126648</v>
+        <v>5.21412470736814</v>
       </c>
       <c r="E25">
-        <v>12.32725174165337</v>
+        <v>7.086679886223752</v>
       </c>
       <c r="F25">
-        <v>33.77740024798904</v>
+        <v>23.66509330265393</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>24.60060289914222</v>
+        <v>14.74437354220691</v>
       </c>
       <c r="J25">
-        <v>9.55379900650971</v>
+        <v>5.397112360024278</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.50957929675195</v>
+        <v>7.919643820523069</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.97439630124532</v>
+        <v>12.11131686321272</v>
       </c>
       <c r="O25">
-        <v>25.83607082150786</v>
+        <v>17.23498053604442</v>
       </c>
     </row>
   </sheetData>
